--- a/payroll/data/DataCollectionTemplate.xlsx
+++ b/payroll/data/DataCollectionTemplate.xlsx
@@ -5,26 +5,27 @@
   <fileSharing readOnlyRecommended="0" userName="susi"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="1" xWindow="240" yWindow="60" windowWidth="0" windowHeight="0" tabRatio="500"/>
+    <workbookView activeTab="2" xWindow="240" yWindow="60" windowWidth="0" windowHeight="0" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="New Hire" sheetId="1" r:id="rId4"/>
     <sheet name="Termination" sheetId="2" r:id="rId5"/>
+    <sheet name="attend" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcOnSave="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1608942415" val="980" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1608942415" fixedDigits="0" showNotice="1" showProtection="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1608942415"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1608942415"/>
+      <pm:revision xmlns:pm="smNativeData" day="1612033877" val="980" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1612033877" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1612033877" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1612033877"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>name</t>
   </si>
@@ -99,13 +100,22 @@
   </si>
   <si>
     <t>term_date</t>
+  </si>
+  <si>
+    <t>start_date</t>
+  </si>
+  <si>
+    <t>end_date</t>
+  </si>
+  <si>
+    <t>01/30/2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
+  <numFmts count="10">
     <numFmt numFmtId="5" formatCode="#,##0\ &quot;₹&quot;;\-#,##0\ &quot;₹&quot;"/>
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;₹&quot;;[Red]\-#,##0\ &quot;₹&quot;"/>
     <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;₹&quot;;\-#,##0.00\ &quot;₹&quot;"/>
@@ -114,6 +124,8 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0\ _₹_-;\-* #,##0\ _₹_-;_-* &quot;-&quot;\ _₹_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₹&quot;_-;\-* #,##0.00\ &quot;₹&quot;_-;_-* &quot;-&quot;??\ &quot;₹&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₹_-;\-* #,##0.00\ _₹_-;_-* &quot;-&quot;??\ _₹_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="DD/MM/YYYY;@"/>
+    <numFmt numFmtId="165" formatCode="M/D/YY h:mm;@"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -123,7 +135,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1608942415" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1612033877" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -138,7 +150,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1608942415" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1612033877" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -153,7 +165,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1608942415" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1612033877" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -162,15 +174,26 @@
       </extLst>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1612033877" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -186,7 +209,26 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1608942415"/>
+          <pm:border xmlns:pm="smNativeData" id="1612033877"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1612033877"/>
         </ext>
       </extLst>
     </border>
@@ -197,7 +239,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -205,7 +247,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1608942415" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1612033877" count="1">
         <pm:charStyle name="Normal" fontId="0"/>
       </pm:charStyles>
     </ext>
@@ -472,7 +514,7 @@
   <dimension ref="B4:H9"/>
   <sheetViews>
     <sheetView view="normal" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:XFD1048576"/>
+      <selection activeCell="B4" sqref="B4:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="15.40"/>
@@ -623,7 +665,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1608942415" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1612033877" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -632,14 +674,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1608942415" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1608942415" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1612033877" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1612033877" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1608942415" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1612033877" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -652,36 +694,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" workbookViewId="0">
+    <sheetView view="normal" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="15.40"/>
   <cols>
-    <col min="1" max="2" width="13.432432" customWidth="1" style="2"/>
-    <col min="3" max="3" width="11.216216" customWidth="1" style="2"/>
-    <col min="4" max="16384" width="10.090090" customWidth="1" style="2"/>
+    <col min="1" max="2" width="13.432432" customWidth="1" style="1"/>
+    <col min="3" max="3" width="11.216216" customWidth="1" style="1"/>
+    <col min="4" max="16384" width="10.090090" customWidth="1" style="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:4">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -689,7 +731,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1608942415" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1612033877" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -698,14 +740,78 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1608942415" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1608942415" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1612033877" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1612033877" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1608942415" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1612033877" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+      </pm:sheetPrefs>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="normal" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="12.90"/>
+  <cols>
+    <col min="2" max="3" width="10.000000" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="n">
+        <v>232</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:pageFlags xmlns:pm="smNativeData" id="1612033877" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+      </ext>
+    </extLst>
+  </printOptions>
+  <pageMargins left="0.787500" right="0.787500" top="0.787500" bottom="0.787500" header="0.393750" footer="0.393750"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
+  <headerFooter>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:header xmlns:pm="smNativeData" id="1612033877" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1612033877" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+      </ext>
+    </extLst>
+  </headerFooter>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1612033877" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
